--- a/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
+++ b/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F968A-89E7-4FE0-B2E5-7C7335509F84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292DB29-60C4-4C97-88EF-D5EF8E29B9F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>LEACH</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>13188.41</t>
+  </si>
+  <si>
+    <t>13117.51</t>
+  </si>
+  <si>
+    <t>13110.45</t>
+  </si>
+  <si>
+    <t>711201.16</t>
+  </si>
+  <si>
+    <t>dataSent LEACH [packets]</t>
+  </si>
+  <si>
+    <t>dataSent BLEACH [packets]</t>
+  </si>
+  <si>
+    <t>712499.2</t>
   </si>
 </sst>
 </file>
@@ -123,8 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5853AFCF-FBC7-4742-8ABC-2931436D5A7E}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -457,18 +482,36 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -479,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -490,7 +533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -501,7 +544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -512,12 +555,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>

--- a/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
+++ b/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292DB29-60C4-4C97-88EF-D5EF8E29B9F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA170A20-2918-4EB9-A2AC-3EDB3A972536}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
+    <workbookView xWindow="5124" yWindow="720" windowWidth="17280" windowHeight="8964" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>LEACH</t>
   </si>
@@ -106,6 +106,51 @@
   </si>
   <si>
     <t>712499.2</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>O_BLEACH</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>startNRJ</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>159, 316</t>
+  </si>
+  <si>
+    <t>159, 390</t>
+  </si>
+  <si>
+    <t>157, 238</t>
+  </si>
+  <si>
+    <t>157, 244</t>
+  </si>
+  <si>
+    <t>155, 648</t>
+  </si>
+  <si>
+    <t>155, 700</t>
+  </si>
+  <si>
+    <t>158, 451</t>
+  </si>
+  <si>
+    <t>158, 479</t>
+  </si>
+  <si>
+    <t>156, 711</t>
+  </si>
+  <si>
+    <t>156, 591</t>
   </si>
 </sst>
 </file>
@@ -460,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5853AFCF-FBC7-4742-8ABC-2931436D5A7E}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +517,7 @@
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -489,12 +534,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -511,7 +556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -522,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -533,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -544,7 +589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -555,14 +600,152 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>5742</v>
+      </c>
+      <c r="D15">
+        <v>5767</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>6117</v>
+      </c>
+      <c r="D16">
+        <v>6132</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>5961</v>
+      </c>
+      <c r="D17">
+        <v>5973</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5920</v>
+      </c>
+      <c r="D18">
+        <v>5898</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>5706</v>
+      </c>
+      <c r="D19">
+        <v>5655</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
+++ b/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Karlsson\Desktop\Gitproj\ThesisWorkCybercom\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA170A20-2918-4EB9-A2AC-3EDB3A972536}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7226675-3F13-4DB9-8AAB-15F07EA1C833}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5124" yWindow="720" windowWidth="17280" windowHeight="8964" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,17 +507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5853AFCF-FBC7-4742-8ABC-2931436D5A7E}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -534,12 +534,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -589,7 +589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -600,17 +600,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -633,7 +633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -656,7 +656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -679,7 +679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -702,7 +702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -725,15 +725,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19">
+        <v>5655</v>
+      </c>
+      <c r="D19">
         <v>5706</v>
-      </c>
-      <c r="D19">
-        <v>5655</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>39</v>

--- a/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
+++ b/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Karlsson\Desktop\Gitproj\ThesisWorkCybercom\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7226675-3F13-4DB9-8AAB-15F07EA1C833}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7E3DD-2FB6-44F1-B5AC-A615F3D98180}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>LEACH</t>
   </si>
@@ -151,6 +151,42 @@
   </si>
   <si>
     <t>156, 591</t>
+  </si>
+  <si>
+    <t>"RAND"</t>
+  </si>
+  <si>
+    <t>"REG"</t>
+  </si>
+  <si>
+    <t>318, 239</t>
+  </si>
+  <si>
+    <t>318, 585</t>
+  </si>
+  <si>
+    <t>327, 496</t>
+  </si>
+  <si>
+    <t>327, 718</t>
+  </si>
+  <si>
+    <t>325, 484</t>
+  </si>
+  <si>
+    <t>326, 183</t>
+  </si>
+  <si>
+    <t>321, 704</t>
+  </si>
+  <si>
+    <t>322, 151</t>
+  </si>
+  <si>
+    <t>313, 266</t>
+  </si>
+  <si>
+    <t>313, 047</t>
   </si>
 </sst>
 </file>
@@ -505,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5853AFCF-FBC7-4742-8ABC-2931436D5A7E}">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +646,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
@@ -745,6 +786,149 @@
         <v>7</v>
       </c>
       <c r="H19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>6412</v>
+      </c>
+      <c r="D23">
+        <v>6361</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>7026</v>
+      </c>
+      <c r="D24">
+        <v>7473</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>6634</v>
+      </c>
+      <c r="D25">
+        <v>6575</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>6453</v>
+      </c>
+      <c r="D26">
+        <v>6958</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>6647</v>
+      </c>
+      <c r="D27">
+        <v>6493</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27">
         <v>50</v>
       </c>
     </row>

--- a/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
+++ b/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Karlsson\Desktop\Gitproj\ThesisWorkCybercom\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7E3DD-2FB6-44F1-B5AC-A615F3D98180}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4869B0-C2BE-4B4C-BCE8-20AA3019F9C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>LEACH</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>313, 047</t>
+  </si>
+  <si>
+    <t>Difference in lifetime</t>
+  </si>
+  <si>
+    <t>Difference in data</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,19 +547,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5853AFCF-FBC7-4742-8ABC-2931436D5A7E}">
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -570,12 +578,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -592,7 +600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -603,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -614,7 +622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -625,7 +633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -636,22 +644,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -673,8 +681,14 @@
       <c r="H14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -696,8 +710,12 @@
       <c r="H15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>D15-C15</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -719,8 +737,12 @@
       <c r="H16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>D16-C16</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -742,8 +764,12 @@
       <c r="H17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>D17-C17</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -765,8 +791,12 @@
       <c r="H18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>D18-C18</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -788,13 +818,23 @@
       <c r="H19">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>D19-C19</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>AVERAGE(J15:J19)</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -816,8 +856,11 @@
       <c r="H22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -839,8 +882,12 @@
       <c r="H23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>D23-C23</f>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -862,8 +909,12 @@
       <c r="H24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>D24-C24</f>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -885,8 +936,12 @@
       <c r="H25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>D25-C25</f>
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -908,8 +963,12 @@
       <c r="H26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f>D26-C26</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -930,6 +989,46 @@
       </c>
       <c r="H27">
         <v>50</v>
+      </c>
+      <c r="J27">
+        <f>D27-C27</f>
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>AVERAGE(J23:J27)</f>
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
+++ b/pyFiles/MPC/Results/LEACHvsBLEACHexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4869B0-C2BE-4B4C-BCE8-20AA3019F9C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C77B9D-8927-40E8-B41C-1FFD871ACD40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="16920" windowHeight="11388" xr2:uid="{C2EDAFF6-B2BC-42A2-8C5E-8A1477ED5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>LEACH</t>
   </si>
@@ -121,36 +121,6 @@
   </si>
   <si>
     <t>Runs</t>
-  </si>
-  <si>
-    <t>159, 316</t>
-  </si>
-  <si>
-    <t>159, 390</t>
-  </si>
-  <si>
-    <t>157, 238</t>
-  </si>
-  <si>
-    <t>157, 244</t>
-  </si>
-  <si>
-    <t>155, 648</t>
-  </si>
-  <si>
-    <t>155, 700</t>
-  </si>
-  <si>
-    <t>158, 451</t>
-  </si>
-  <si>
-    <t>158, 479</t>
-  </si>
-  <si>
-    <t>156, 711</t>
-  </si>
-  <si>
-    <t>156, 591</t>
   </si>
   <si>
     <t>"RAND"</t>
@@ -550,18 +520,18 @@
   <dimension ref="B1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="34.109375" customWidth="1"/>
+    <col min="11" max="11" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -578,12 +548,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -600,7 +570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -611,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -622,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -633,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -644,22 +614,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -682,27 +652,27 @@
         <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15">
-        <v>5742</v>
+        <v>6452</v>
       </c>
       <c r="D15">
-        <v>5767</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>6486</v>
+      </c>
+      <c r="E15" s="1">
+        <v>352725</v>
+      </c>
+      <c r="F15" s="1">
+        <v>352762</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -712,24 +682,24 @@
       </c>
       <c r="J15">
         <f>D15-C15</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>6117</v>
+        <v>6627</v>
       </c>
       <c r="D16">
-        <v>6132</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>6671</v>
+      </c>
+      <c r="E16" s="1">
+        <v>351187</v>
+      </c>
+      <c r="F16" s="1">
+        <v>351273</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -739,24 +709,24 @@
       </c>
       <c r="J16">
         <f>D16-C16</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>5961</v>
+        <v>6638</v>
       </c>
       <c r="D17">
-        <v>5973</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>6664</v>
+      </c>
+      <c r="E17" s="1">
+        <v>352129</v>
+      </c>
+      <c r="F17" s="1">
+        <v>352224</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
@@ -766,24 +736,24 @@
       </c>
       <c r="J17">
         <f>D17-C17</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18">
-        <v>5920</v>
+        <v>6561</v>
       </c>
       <c r="D18">
-        <v>5898</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>6592</v>
+      </c>
+      <c r="E18" s="1">
+        <v>352154</v>
+      </c>
+      <c r="F18" s="1">
+        <v>352151</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -793,24 +763,24 @@
       </c>
       <c r="J18">
         <f>D18-C18</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19">
-        <v>5655</v>
+        <v>6574</v>
       </c>
       <c r="D19">
-        <v>5706</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>6600</v>
+      </c>
+      <c r="E19" s="1">
+        <v>353611</v>
+      </c>
+      <c r="F19" s="1">
+        <v>353793</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -820,21 +790,21 @@
       </c>
       <c r="J19">
         <f>D19-C19</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J20">
         <f>AVERAGE(J15:J19)</f>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -857,10 +827,10 @@
         <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -871,10 +841,10 @@
         <v>6361</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
@@ -887,7 +857,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -898,10 +868,10 @@
         <v>7473</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -914,7 +884,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -925,10 +895,10 @@
         <v>6575</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -941,7 +911,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -952,10 +922,10 @@
         <v>6958</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -968,7 +938,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -979,10 +949,10 @@
         <v>6493</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -995,38 +965,38 @@
         <v>-154</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J28">
         <f>AVERAGE(J23:J27)</f>
         <v>137.6</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>27</v>
       </c>
